--- a/aula-ocultar-reexibir.xlsx
+++ b/aula-ocultar-reexibir.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4580CF65-1C2C-4CA0-B548-CAE79BEC6233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pontua Cliente" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -82,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -551,20 +563,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="9" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
@@ -580,7 +594,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="26" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -636,7 +650,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -666,7 +680,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -696,7 +710,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -726,7 +740,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,51 +770,51 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
